--- a/docs/0_위험분석보고서/위험분석보고서_1227.xlsx
+++ b/docs/0_위험분석보고서/위험분석보고서_1227.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\onad\OnAD_project\docs\0_위험분석보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6A03AA-0B71-449D-B7BD-E15C40C2894E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144B028-F0C3-4629-BB65-E71EA1E7A718}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="6384" xr2:uid="{30E39659-5B47-4D79-84F0-DF8EE6B7EFF4}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="B1" s="2">
         <f ca="1">NOW()</f>
-        <v>43461.472958101855</v>
+        <v>43462.590219907404</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">

--- a/docs/0_위험분석보고서/위험분석보고서_1227.xlsx
+++ b/docs/0_위험분석보고서/위험분석보고서_1227.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\onad\OnAD_project\docs\0_위험분석보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144B028-F0C3-4629-BB65-E71EA1E7A718}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02572683-D767-4306-AE58-77EFAFF14093}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="6384" xr2:uid="{30E39659-5B47-4D79-84F0-DF8EE6B7EFF4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>위험명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,18 @@
     <t>작업한 단어 라벨링을 적용한 결과와 Khaiii의 감성분석 비교 결과값 예측이
 불확실, 비교 결과값이 어떻게 나와야 좋은건지 불확실, 단어 임의 라벨링이
 사용할만 한지에 대한 검증 방법 구상되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결목표일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E406E46-C2F7-4C4E-B210-D6FEF513040D}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -591,18 +603,19 @@
     <col min="5" max="5" width="6.3984375" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2">
         <f ca="1">NOW()</f>
-        <v>43462.590219907404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>43462.705487615742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -622,8 +635,17 @@
       <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -645,8 +667,11 @@
       <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -668,8 +693,11 @@
       <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -691,8 +719,11 @@
       <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -714,8 +745,11 @@
       <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -737,8 +771,11 @@
       <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -760,8 +797,11 @@
       <c r="G9" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -783,8 +823,11 @@
       <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -794,8 +837,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -805,8 +851,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -816,8 +865,11 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -827,8 +879,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -838,8 +893,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -849,8 +907,11 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -860,8 +921,11 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -871,6 +935,9 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
